--- a/biology/Médecine/Pholien_Systermans/Pholien_Systermans.xlsx
+++ b/biology/Médecine/Pholien_Systermans/Pholien_Systermans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pholien Systermans (né le 27 mars 1990 à Liège[1]) est un nageur belge qui a battu le record du 100 m nage libre de Belgique en 2009[2].
+Pholien Systermans (né le 27 mars 1990 à Liège) est un nageur belge qui a battu le record du 100 m nage libre de Belgique en 2009.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pholien Systermans a été entraîné à Liège Natation par André Henveaux et a effectué un an d'étude à l'Université de Floride[3],[4] où il a été entraîné par le célebre entraîneur américain, Gregg Troy, et l’ancien champion olympique Anthony Nesty. Il a eu comme équipier Ryan Lochte, champion olympique, champion du monde et recordman du monde du 200 mètres dos.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pholien Systermans a été entraîné à Liège Natation par André Henveaux et a effectué un an d'étude à l'Université de Floride, où il a été entraîné par le célebre entraîneur américain, Gregg Troy, et l’ancien champion olympique Anthony Nesty. Il a eu comme équipier Ryan Lochte, champion olympique, champion du monde et recordman du monde du 200 mètres dos.
 En tant que junior, il avait fait partie de l'équipe de relais 4 fois 100 m nage libre qui avait remporté une médaille de bronze pour la Belgique aux Championnats d'Europe juniors de natation 2007.
-En 2009, il a été condamné à une amende de 1 500 € pour avoir porté le « mauvais costume » lors d'une compétition de natation à Rome, décision à laquelle il a fait appel en mai 2010[5].
-Aux Championnats d'Europe de natation 2010, Systermans faisait partie de l'équipe belge de relais 4 fois 200 m qui est arrivée septième en finale[6].
+En 2009, il a été condamné à une amende de 1 500 € pour avoir porté le « mauvais costume » lors d'une compétition de natation à Rome, décision à laquelle il a fait appel en mai 2010.
+Aux Championnats d'Europe de natation 2010, Systermans faisait partie de l'équipe belge de relais 4 fois 200 m qui est arrivée septième en finale.
 En 2020, il travaille comme kinésithérapeute-ostéopathe en Belgique.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Koh-Lanta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a participé également à la sixième saison spéciale de Koh-Lanta, Koh-Lanta : L'Île des héros, lors de laquelle il fut éliminé après la réunification[7], il a donc fait partie du jury final.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a participé également à la sixième saison spéciale de Koh-Lanta, Koh-Lanta : L'Île des héros, lors de laquelle il fut éliminé après la réunification, il a donc fait partie du jury final.
 En 2018, il était dans les candidats malheureux de la saison annulée à la suite de l'agression sexuelle présumée survenue lors du tournage.
 </t>
         </is>
@@ -579,9 +595,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a deux enfants[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a deux enfants.
 </t>
         </is>
       </c>
